--- a/E-pojat.xlsx
+++ b/E-pojat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\iv\2023-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B19F57-D7F1-4B67-97DA-F4DE4DDF548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930126B3-8954-4CD2-9F50-D8A8D25F4BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="E 2016-2021" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="262">
   <si>
     <t>päivä</t>
   </si>
@@ -824,6 +824,15 @@
   </si>
   <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>koti</t>
+  </si>
+  <si>
+    <t>vieras</t>
+  </si>
+  <si>
+    <t>Koti</t>
   </si>
 </sst>
 </file>
@@ -834,7 +843,7 @@
     <numFmt numFmtId="164" formatCode="d&quot;.&quot;m&quot;.&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d&quot;.&quot;mmm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,16 +858,41 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -866,11 +900,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -887,6 +936,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,9 +1243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1228,7 +1283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1334,7 +1389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1476,7 +1531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1484,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,481 +1561,635 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <f>'E-T 2016-2017'!Q2</f>
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <f>'[1]E-tiikeri_2016-2017'!N2</f>
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <f>'E-T 2016-2017'!O2</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <f>'[1]E-tiikeri_2016-2017'!O2</f>
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="10">
         <f>'[1]E-tiikeri_2016-2017'!N3</f>
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="10">
         <f>'[1]E-tiikeri_2016-2017'!O3</f>
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="10">
         <f>'[1]E-tiikeri_2016-2017'!N4</f>
         <v>657</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="10">
         <f>'[1]E-tiikeri_2016-2017'!O4</f>
         <v>723</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <f>'[1]E-tiikeri_2017-2018'!P2</f>
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>'[1]E-tiikeri_2017-2018'!N2</f>
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <f>'[1]E-tiikeri_2017-2018'!R2</f>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <f>'[1]E-tiikeri_2017-2018'!O2</f>
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <f>'[1]E-tiikeri_2017-2018'!N2</f>
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
         <f>'[1]E-tiikeri_2017-2018'!O2</f>
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="11">
         <f>'[1]E-tiikeri_2017-2018'!N3</f>
         <v>28</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="11">
         <f>'[1]E-tiikeri_2017-2018'!O3</f>
         <v>28</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!P2</f>
         <v>25</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!N2</f>
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="10">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!O2</f>
         <v>13</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!N3</f>
         <v>24</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!O3</f>
         <v>26</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="10">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!N4</f>
         <v>1152</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="10">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!O4</f>
         <v>1085</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <f>'[1]E-tiikeri_sininen_2018-2019'!P2</f>
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <f>'[1]E-tiikeri_sininen_2018-2019'!N2</f>
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <f>'[1]E-tiikeri_sininen_2018-2019'!R2</f>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <f>'[1]E-tiikeri_sininen_2018-2019'!O2</f>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="11">
         <f>'[1]E-tiikeri_sininen_2018-2019'!N3</f>
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="11">
         <f>'[1]E-tiikeri_sininen_2018-2019'!O3</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="11">
         <f>'[1]E-tiikeri_sininen_2018-2019'!N4</f>
         <v>513</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="11">
         <f>'[1]E-tiikeri_sininen_2018-2019'!O4</f>
         <v>350</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <f>'[1]E-AM_2018-2019'!Q2</f>
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <f>'[1]E-AM_2018-2019'!N2</f>
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <f>'[1]E-AM_2018-2019'!P2</f>
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <f>'[1]E-AM_2018-2019'!O2</f>
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <f>'[1]E-AM_2018-2019'!N3</f>
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <f>'[1]E-AM_2018-2019'!O3</f>
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="10">
         <f>'[1]E-AM_2018-2019'!N4</f>
         <v>533</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="10">
         <f>'[1]E-AM_2018-2019'!O4</f>
         <v>676</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <f>'[1]E-tiikeri_2019_2020'!S2</f>
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <f>'[1]E-tiikeri_2019_2020'!P2</f>
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <f>'[1]E-tiikeri_2019_2020'!R2</f>
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <f>'[1]E-tiikeri_2019_2020'!Q2</f>
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="11">
         <f>2*'[1]E-tiikeri_2019_2020'!H29+'[1]E-tiikeri_2019_2020'!I29</f>
         <v>25</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="11">
         <f>2*'[1]E-tiikeri_2019_2020'!J29+'[1]E-tiikeri_2019_2020'!I29</f>
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="11">
         <f>'[1]E-tiikeri_2019_2020'!K29</f>
         <v>808</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="11">
         <f>'[1]E-tiikeri_2019_2020'!L29</f>
         <v>645</v>
       </c>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <f>'[1]E-AM_keltainen_2019-2020'!S2</f>
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <f>'[1]E-AM_keltainen_2019-2020'!P2</f>
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <f>'[1]E-AM_keltainen_2019-2020'!R2</f>
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <f>'[1]E-AM_keltainen_2019-2020'!Q2</f>
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <f>'[1]E-AM_keltainen_2019-2020'!P3</f>
         <v>23</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="10">
         <f>'[1]E-AM_keltainen_2019-2020'!Q3</f>
         <v>9</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="10">
         <f>'[1]E-AM_keltainen_2019-2020'!P4</f>
         <v>770</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="10">
         <f>'[1]E-AM_keltainen_2019-2020'!Q4</f>
         <v>632</v>
       </c>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <f>'[1]E-AM_2020_2021'!P2</f>
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <f>'[1]E-AM_2020_2021'!N2</f>
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="11">
         <f>'[1]E-AM_2020_2021'!O2</f>
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="11">
         <f>'[1]E-AM_2020_2021'!N3</f>
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="11">
         <f>'[1]E-AM_2020_2021'!O3</f>
         <v>4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="11">
         <f>'[1]E-AM_2020_2021'!N4</f>
         <v>283</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="11">
         <f>'[1]E-AM_2020_2021'!O4</f>
         <v>224</v>
       </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="12">
         <f t="shared" ref="C11:J11" si="0">SUM(C2:C9)</f>
         <v>128</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="12">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>4744</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="12">
         <f t="shared" si="0"/>
         <v>4363</v>
       </c>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="13">
         <f t="shared" ref="C12:J12" si="1">SUM(C2:C5,C7)</f>
         <v>94</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="13">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="13">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>3158</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="13">
         <f t="shared" si="1"/>
         <v>2831</v>
       </c>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="12">
         <f t="shared" ref="C13:J13" si="2">SUM(C6,C8:C9)</f>
         <v>34</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="12">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="12">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="12">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="12">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="12">
         <f t="shared" si="2"/>
         <v>1586</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="12">
         <f t="shared" si="2"/>
         <v>1532</v>
       </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1992,7 +2201,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2009,8 +2218,12 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2465,7 +2678,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2477,8 +2690,12 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>

--- a/E-pojat.xlsx
+++ b/E-pojat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930126B3-8954-4CD2-9F50-D8A8D25F4BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A8B2B0-3D85-4B20-B793-F99FB8D71298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" firstSheet="1" activeTab="8" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="E 2016-2021" sheetId="10" r:id="rId1"/>
@@ -843,7 +843,7 @@
     <numFmt numFmtId="164" formatCode="d&quot;.&quot;m&quot;.&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d&quot;.&quot;mmm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,9 +859,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -892,7 +899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -915,33 +922,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,657 +1625,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
-  <dimension ref="A1:K26"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="1" max="11" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="23" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <f>'E-T 2016-2017'!Q2</f>
         <v>15</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <f>'[1]E-tiikeri_2016-2017'!N2</f>
         <v>6</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>'E-T 2016-2017'!O2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <f>'[1]E-tiikeri_2016-2017'!O2</f>
         <v>9</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <f>'[1]E-tiikeri_2016-2017'!N3</f>
         <v>12</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f>'[1]E-tiikeri_2016-2017'!O3</f>
         <v>18</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <f>'[1]E-tiikeri_2016-2017'!N4</f>
         <v>657</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <f>'[1]E-tiikeri_2016-2017'!O4</f>
         <v>723</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>'[1]E-tiikeri_2017-2018'!P2</f>
         <v>28</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>'[1]E-tiikeri_2017-2018'!N2</f>
         <v>14</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>'[1]E-tiikeri_2017-2018'!R2</f>
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>'[1]E-tiikeri_2017-2018'!O2</f>
         <v>14</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>'[1]E-tiikeri_2017-2018'!N2</f>
         <v>14</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f>'[1]E-tiikeri_2017-2018'!O2</f>
         <v>14</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f>'[1]E-tiikeri_2017-2018'!N3</f>
         <v>28</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f>'[1]E-tiikeri_2017-2018'!O3</f>
         <v>28</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!P2</f>
         <v>25</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!N2</f>
         <v>12</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!O2</f>
         <v>13</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!N3</f>
         <v>24</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!O3</f>
         <v>26</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!N4</f>
         <v>1152</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f>'[1]E-tiikeri_valkoinen_2018-2019'!O4</f>
         <v>1085</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f>'[1]E-tiikeri_sininen_2018-2019'!P2</f>
         <v>10</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>'[1]E-tiikeri_sininen_2018-2019'!N2</f>
         <v>10</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>'[1]E-tiikeri_sininen_2018-2019'!R2</f>
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>'[1]E-tiikeri_sininen_2018-2019'!O2</f>
         <v>0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>'[1]E-tiikeri_sininen_2018-2019'!N3</f>
         <v>20</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f>'[1]E-tiikeri_sininen_2018-2019'!O3</f>
         <v>0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f>'[1]E-tiikeri_sininen_2018-2019'!N4</f>
         <v>513</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <f>'[1]E-tiikeri_sininen_2018-2019'!O4</f>
         <v>350</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <f>'[1]E-AM_2018-2019'!Q2</f>
         <v>14</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f>'[1]E-AM_2018-2019'!N2</f>
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f>'[1]E-AM_2018-2019'!P2</f>
         <v>2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f>'[1]E-AM_2018-2019'!O2</f>
         <v>10</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f>'[1]E-AM_2018-2019'!N3</f>
         <v>4</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f>'[1]E-AM_2018-2019'!O3</f>
         <v>20</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f>'[1]E-AM_2018-2019'!N4</f>
         <v>533</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f>'[1]E-AM_2018-2019'!O4</f>
         <v>676</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>'[1]E-tiikeri_2019_2020'!S2</f>
         <v>16</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>'[1]E-tiikeri_2019_2020'!P2</f>
         <v>12</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f>'[1]E-tiikeri_2019_2020'!R2</f>
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>'[1]E-tiikeri_2019_2020'!Q2</f>
         <v>3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>2*'[1]E-tiikeri_2019_2020'!H29+'[1]E-tiikeri_2019_2020'!I29</f>
         <v>25</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <f>2*'[1]E-tiikeri_2019_2020'!J29+'[1]E-tiikeri_2019_2020'!I29</f>
         <v>7</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f>'[1]E-tiikeri_2019_2020'!K29</f>
         <v>808</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <f>'[1]E-tiikeri_2019_2020'!L29</f>
         <v>645</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <f>'[1]E-AM_keltainen_2019-2020'!S2</f>
         <v>14</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>'[1]E-AM_keltainen_2019-2020'!P2</f>
         <v>9</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f>'[1]E-AM_keltainen_2019-2020'!R2</f>
         <v>1</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f>'[1]E-AM_keltainen_2019-2020'!Q2</f>
         <v>4</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>'[1]E-AM_keltainen_2019-2020'!P3</f>
         <v>23</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f>'[1]E-AM_keltainen_2019-2020'!Q3</f>
         <v>9</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f>'[1]E-AM_keltainen_2019-2020'!P4</f>
         <v>770</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f>'[1]E-AM_keltainen_2019-2020'!Q4</f>
         <v>632</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>'[1]E-AM_2020_2021'!P2</f>
         <v>6</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>'[1]E-AM_2020_2021'!N2</f>
         <v>4</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>'[1]E-AM_2020_2021'!O2</f>
         <v>2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>'[1]E-AM_2020_2021'!N3</f>
         <v>8</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f>'[1]E-AM_2020_2021'!O3</f>
         <v>4</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f>'[1]E-AM_2020_2021'!N4</f>
         <v>283</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <f>'[1]E-AM_2020_2021'!O4</f>
         <v>224</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <f t="shared" ref="C11:J11" si="0">SUM(C2:C9)</f>
         <v>128</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>4744</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <f t="shared" si="0"/>
         <v>4363</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f t="shared" ref="C12:J12" si="1">SUM(C2:C5,C7)</f>
         <v>94</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <f t="shared" si="1"/>
         <v>3158</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <f t="shared" si="1"/>
         <v>2831</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <f t="shared" ref="C13:J13" si="2">SUM(C6,C8:C9)</f>
         <v>34</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f t="shared" si="2"/>
         <v>1586</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <f t="shared" si="2"/>
         <v>1532</v>
       </c>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="K13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2198,472 +2145,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA7DDF2-93D8-4F46-9A64-C4ECEE966431}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="1" max="17" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="23">
         <v>2</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
+      <c r="H1" s="23">
+        <v>1</v>
+      </c>
+      <c r="I1" s="23">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="14">
         <v>44100</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <v>26</v>
       </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="9">
+        <v>50</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="9">
         <f>SUM(G2:G7)</f>
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="9">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="9">
         <f>SUM(I2:I7)</f>
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="9">
         <f>SUM(N2:P2)</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="16">
         <v>44100</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10">
+        <v>50</v>
+      </c>
+      <c r="K3" s="10">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="10">
         <f>SUM(G2:G21)*2+1*SUM(H2:H21)</f>
         <v>8</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="10">
         <f>SUM(I2:I21)*2+1*SUM(H2:H21)</f>
         <v>4</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="10">
         <f>SUM(N3:P3)</f>
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="14">
         <v>44100</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
         <v>57</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>56</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <f>SUM(J2:J25)</f>
         <v>283</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9">
         <f>SUM(K2:K22)</f>
         <v>224</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="9">
         <f>SUM(N4:P4)</f>
         <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="16">
         <v>44142</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10">
+        <v>50</v>
+      </c>
+      <c r="K5" s="10">
         <v>34</v>
       </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="14">
         <v>44142</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6">
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9">
+        <v>50</v>
+      </c>
+      <c r="K6" s="9">
         <v>26</v>
       </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="16">
         <v>44142</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7">
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
+        <v>50</v>
+      </c>
+      <c r="K7" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
     </row>
     <row r="49" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G49">
+      <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
         <v>4</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <f>SUM(H2:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <f>SUM(I2:I48)</f>
         <v>2</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <f>SUM(J2:J47)</f>
         <v>283</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <f>SUM(K2:K47)</f>
         <v>224</v>
       </c>
@@ -2675,538 +2560,636 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BA441-2FE5-49B2-BE4A-FC0E0FF48E84}">
-  <dimension ref="A1:S19"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="10.77734375" style="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="23">
         <v>3</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="23">
         <v>2</v>
       </c>
-      <c r="I1" s="1">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="I1" s="23">
+        <v>1</v>
+      </c>
+      <c r="J1" s="23">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>43743</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-      <c r="L2">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>50</v>
+      </c>
+      <c r="L2" s="9">
         <v>32</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P2">
-        <f>G19+H19</f>
-        <v>9</v>
-      </c>
-      <c r="Q2">
-        <f>I19</f>
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <f>J19</f>
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <f>SUM(P2:R2)</f>
+      <c r="O2" s="9">
+        <f>SUM(G2:H15)</f>
+        <v>9</v>
+      </c>
+      <c r="P2" s="9">
+        <f>SUM(I2:I14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>SUM(J2:J14)+I15</f>
+        <v>4</v>
+      </c>
+      <c r="R2" s="9">
+        <f>SUM(O2:Q2)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
         <v>43743</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="L3">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20">
+        <v>50</v>
+      </c>
+      <c r="L3" s="20">
         <v>38</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="P3">
-        <f>3*G19+2*H19</f>
-        <v>21</v>
-      </c>
-      <c r="Q3">
-        <f>I19</f>
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <f>2*J19+I4+I15*2</f>
-        <v>9</v>
-      </c>
-      <c r="S3">
-        <f>SUM(P3:R3)</f>
+      <c r="O3" s="20">
+        <f>SUM(G2:G15)*3+2*SUM(H2:H15)+SUM(I2:I15)</f>
+        <v>23</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20">
+        <f>SUM(J2:J12)*2+2*I15+SUM(I2:I14)</f>
+        <v>9</v>
+      </c>
+      <c r="R3" s="20">
+        <f>SUM(O3:Q3)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>43743</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
         <v>48</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>39</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="9">
         <f>SUM(K2:K15)</f>
         <v>770</v>
       </c>
-      <c r="R4">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9">
         <f>SUM(L2:L15)</f>
         <v>632</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>43743</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="L5">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20">
+        <v>50</v>
+      </c>
+      <c r="L5" s="20">
         <v>27</v>
       </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="M5" s="20"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>43778</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
         <v>42</v>
       </c>
-      <c r="L6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="L6" s="9">
+        <v>50</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>43778</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20">
         <v>51</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="20">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>43778</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
-      <c r="L8">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>50</v>
+      </c>
+      <c r="L8" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>43800</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20">
         <v>46</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="20">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>43800</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
         <v>55</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="9">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>43800</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
+        <v>1</v>
+      </c>
+      <c r="K11" s="20">
         <v>37</v>
       </c>
-      <c r="L11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="L11" s="20">
+        <v>50</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>43841</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="K12">
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
         <v>75</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="9">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>43841</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20">
         <v>75</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="20">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>43862</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
         <v>75</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="9">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>43862</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="K15">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20">
+        <v>1</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20">
         <v>66</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="20">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G19">
-        <f>SUM(G2:G15)</f>
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <f>SUM(H2:H15)</f>
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <f>SUM(I2:I15)</f>
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <f>SUM(J2:J15)</f>
-        <v>3</v>
-      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3215,594 +3198,712 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF4C234-FACD-4E09-BE91-55E53271EA66}">
-  <dimension ref="A1:R29"/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="1" max="17" width="10.77734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="23">
         <v>2</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
+      <c r="H1" s="23">
+        <v>1</v>
+      </c>
+      <c r="I1" s="23">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>43744</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <v>56</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>62</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O2">
+      <c r="N2" s="9">
         <f>G29</f>
         <v>12</v>
       </c>
-      <c r="P2">
+      <c r="O2" s="9">
         <f>H29</f>
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="9">
         <f>SUM(I2:I26)</f>
         <v>3</v>
       </c>
-      <c r="R2">
-        <f>SUM(O2:Q2)</f>
+      <c r="Q2" s="9">
+        <f>SUM(N2:P2)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
         <v>43744</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20">
+        <v>50</v>
+      </c>
+      <c r="K3" s="20">
         <v>45</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="O3">
+      <c r="N3" s="20">
         <f>2*G29</f>
         <v>24</v>
       </c>
-      <c r="P3">
+      <c r="O3" s="20">
         <f>1*H29</f>
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="20">
         <f>2*I29+H29</f>
         <v>7</v>
       </c>
-      <c r="R3">
-        <f>SUM(O3:Q3)</f>
+      <c r="Q3" s="20">
+        <f>SUM(N3:P3)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>43744</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
         <v>58</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>52</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O4">
+      <c r="N4" s="9">
         <f>J29</f>
         <v>808</v>
       </c>
-      <c r="Q4">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9">
         <f>K29</f>
         <v>645</v>
       </c>
-      <c r="R4">
-        <f>SUM(O4:Q4)</f>
+      <c r="Q4" s="9">
+        <f>SUM(N4:P4)</f>
         <v>1453</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>43778</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20">
         <v>32</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="20">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>43778</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6">
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9">
+        <v>50</v>
+      </c>
+      <c r="K6" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>43778</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7">
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20">
+        <v>50</v>
+      </c>
+      <c r="K7" s="20">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>43800</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
         <v>44</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>43800</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9">
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
+        <v>50</v>
+      </c>
+      <c r="K9" s="20">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>43800</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="15">
         <v>43862</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
         <v>59</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="9">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>43800</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="21">
         <v>43862</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
         <v>56</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="20">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>43842</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12">
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
+        <v>50</v>
+      </c>
+      <c r="K12" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>43842</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13">
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20">
+        <v>50</v>
+      </c>
+      <c r="K13" s="20">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>43842</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>50</v>
-      </c>
-      <c r="K14">
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
+        <v>50</v>
+      </c>
+      <c r="K14" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>43862</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15">
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20">
+        <v>50</v>
+      </c>
+      <c r="K15" s="20">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>43862</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="15">
         <v>43862</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
         <v>57</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="9">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>43862</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="21">
         <v>43832</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="J17">
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
         <v>46</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="20">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G29">
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G29" s="8">
         <f t="shared" ref="G29:K29" si="0">SUM(G2:G28)</f>
         <v>12</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="8">
         <f t="shared" si="0"/>
         <v>808</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="8">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
@@ -3814,522 +3915,624 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6146B0B-41D2-441E-B1E1-9DABBD7819AF}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="36" customWidth="1"/>
+    <col min="2" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="16" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="13">
         <v>2</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
+      <c r="H1" s="13">
+        <v>1</v>
+      </c>
+      <c r="I1" s="13">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
+        <v>50</v>
+      </c>
+      <c r="K2" s="4">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <f>SUM(G2:G26)</f>
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <f>SUM(H2:H26)</f>
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <f>SUM(I2:I26)</f>
         <v>10</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <f>SUM(N2:P2)</f>
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
         <v>32</v>
       </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="5">
+        <v>50</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="5">
         <f>SUM(G2:G26)*2</f>
         <v>4</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="5">
         <f>SUM(H2:H26)*1</f>
         <v>2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="5">
         <f>SUM(I2:I26)*2</f>
         <v>20</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="5">
         <f>SUM(N3:P3)</f>
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <f>SUM(J2:J31)</f>
         <v>533</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4">
         <f>SUM(K2:K31)</f>
         <v>676</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <f>SUM(N4:P4)</f>
         <v>1209</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
         <v>37</v>
       </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
+      <c r="K5" s="18">
+        <v>50</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>25</v>
       </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
+      <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
         <v>27</v>
       </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
+      <c r="K7" s="18">
+        <v>50</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>37</v>
       </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
+      <c r="K8" s="4">
+        <v>50</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
         <v>39</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="18">
         <v>60</v>
       </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
         <v>42</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>54</v>
       </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
         <v>30</v>
       </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
+      <c r="K11" s="18">
+        <v>50</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>45</v>
       </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
+      <c r="K12" s="4">
+        <v>50</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18">
         <v>49</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="18">
         <v>51</v>
       </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
         <v>32</v>
       </c>
-      <c r="K14">
-        <v>50</v>
-      </c>
+      <c r="K14" s="4">
+        <v>50</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
         <v>38</v>
       </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
+      <c r="K15" s="18">
+        <v>50</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4338,844 +4541,1028 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E65D17B-35D6-4790-92EB-025893ABF350}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="17" width="11.77734375" customWidth="1"/>
+    <col min="1" max="17" width="10.77734375" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="23">
         <v>2</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
+      <c r="H1" s="23">
+        <v>1</v>
+      </c>
+      <c r="I1" s="23">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <v>39</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>52</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="9">
         <f>SUM(G2:G26)</f>
         <v>12</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="9">
         <f>SUM(H2:H26)</f>
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="9">
         <f>SUM(I2:I26)</f>
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="9">
         <f>SUM(N2:P2)</f>
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20">
         <v>29</v>
       </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="20">
+        <v>50</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="20">
         <f>SUM(G2:G26)*2</f>
         <v>24</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="20">
         <f>SUM(H2:H26)*1</f>
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="20">
         <f>SUM(I2:I26)*2</f>
         <v>26</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="20">
         <f>SUM(N3:P3)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4">
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="9">
+        <v>50</v>
+      </c>
+      <c r="K4" s="9">
         <v>18</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <f>SUM(J2:J31)</f>
         <v>1152</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9">
         <f>SUM(K2:K31)</f>
         <v>1085</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="9">
         <f>SUM(N4:P4)</f>
         <v>2237</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20">
+        <v>50</v>
+      </c>
+      <c r="K5" s="20">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
         <v>55</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="J7" s="20">
         <v>55</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="20">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
         <v>52</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <v>63</v>
       </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20">
         <v>40</v>
       </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
+      <c r="K9" s="20">
+        <v>50</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
         <v>27</v>
       </c>
-      <c r="K10">
-        <v>50</v>
-      </c>
+      <c r="K10" s="9">
+        <v>50</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11">
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
+        <v>50</v>
+      </c>
+      <c r="K11" s="20">
         <v>32</v>
       </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12">
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
+        <v>50</v>
+      </c>
+      <c r="K12" s="9">
         <v>39</v>
       </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13">
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20">
+        <v>50</v>
+      </c>
+      <c r="K13" s="20">
         <v>46</v>
       </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>50</v>
-      </c>
-      <c r="K14">
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
+        <v>50</v>
+      </c>
+      <c r="K14" s="9">
         <v>25</v>
       </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15">
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20">
+        <v>50</v>
+      </c>
+      <c r="K15" s="20">
         <v>29</v>
       </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
         <v>61</v>
       </c>
-      <c r="K16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="K16" s="9">
+        <v>50</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>50</v>
-      </c>
-      <c r="K17">
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
+        <v>50</v>
+      </c>
+      <c r="K17" s="20">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>50</v>
-      </c>
-      <c r="K18">
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
+        <v>50</v>
+      </c>
+      <c r="K18" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20">
         <v>51</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="20">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>50</v>
-      </c>
-      <c r="K20">
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
+        <v>50</v>
+      </c>
+      <c r="K20" s="9">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>50</v>
-      </c>
-      <c r="K21">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20">
+        <v>1</v>
+      </c>
+      <c r="J21" s="20">
+        <v>50</v>
+      </c>
+      <c r="K21" s="20">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
         <v>22</v>
       </c>
-      <c r="K22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="K22" s="9">
+        <v>50</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>50</v>
-      </c>
-      <c r="K23">
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20">
+        <v>50</v>
+      </c>
+      <c r="K23" s="20">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+    </row>
+    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
         <v>34</v>
       </c>
-      <c r="K24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="K24" s="9">
+        <v>50</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20">
+        <v>1</v>
+      </c>
+      <c r="J25" s="20">
         <v>48</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="20">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
         <v>39</v>
       </c>
-      <c r="K26">
-        <v>50</v>
-      </c>
+      <c r="K26" s="9">
+        <v>50</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5184,406 +5571,473 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A705EA96-7D27-402F-9FE6-68F8B8D7146E}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="16" width="11.77734375" customWidth="1"/>
+    <col min="1" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="27">
         <v>2</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
+      <c r="H1" s="27">
+        <v>1</v>
+      </c>
+      <c r="I1" s="27">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28">
         <v>52</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="28">
         <v>39</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="28">
         <f>SUM(G2:G26)</f>
         <v>10</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="28">
         <f>SUM(H2:H26)</f>
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="28">
         <f>SUM(I2:I26)</f>
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="28">
         <f>SUM(N2:P2)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26">
+        <v>50</v>
+      </c>
+      <c r="K3" s="26">
         <v>22</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="26">
         <f>SUM(G2:G26)*2</f>
         <v>20</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="26">
         <f>SUM(H2:H26)*1</f>
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="26">
         <f>SUM(I2:I26)*2</f>
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="26">
         <f>SUM(N3:P3)</f>
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4">
+      <c r="G4" s="28">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28">
+        <v>50</v>
+      </c>
+      <c r="K4" s="28">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="28"/>
+      <c r="M4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="28">
         <f>SUM(J2:J31)</f>
         <v>513</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="28"/>
+      <c r="P4" s="28">
         <f>SUM(K2:K31)</f>
         <v>350</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="28">
         <f>SUM(N4:P4)</f>
         <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
+      <c r="G5" s="26">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26">
+        <v>50</v>
+      </c>
+      <c r="K5" s="26">
         <v>28</v>
       </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6">
+      <c r="G6" s="28">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28">
+        <v>50</v>
+      </c>
+      <c r="K6" s="28">
         <v>31</v>
       </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26">
         <v>61</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="26">
         <v>55</v>
       </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8">
+      <c r="G8" s="28">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28">
+        <v>50</v>
+      </c>
+      <c r="K8" s="28">
         <v>38</v>
       </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9">
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26">
+        <v>50</v>
+      </c>
+      <c r="K9" s="26">
         <v>35</v>
       </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-      <c r="K10">
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28">
+        <v>50</v>
+      </c>
+      <c r="K10" s="28">
         <v>36</v>
       </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
     </row>
     <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11">
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26">
+        <v>50</v>
+      </c>
+      <c r="K11" s="26">
         <v>37</v>
       </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5592,923 +6046,1139 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34541E2D-A4ED-410A-A5F7-F87346531834}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="10.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="23">
         <v>2</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
+      <c r="H1" s="23">
+        <v>1</v>
+      </c>
+      <c r="I1" s="23">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <v>32</v>
       </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="9">
+        <v>50</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="9">
         <f>SUM(G2:G30)</f>
         <v>14</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="9">
         <f>SUM(H2:H30)</f>
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="9">
         <f>SUM(I2:I30)</f>
         <v>14</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="9">
         <f>SUM(N2:P2)</f>
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20">
+        <v>50</v>
+      </c>
+      <c r="K3" s="20">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="20">
         <f>SUM(G2:G30)*2</f>
         <v>28</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="20">
         <f>SUM(H2:H30)*1</f>
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="20">
         <f>SUM(I2:I30)*2</f>
         <v>28</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="20">
         <f>SUM(N3:P3)</f>
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
         <v>43</v>
       </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="9">
+        <v>50</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <f>SUM(J2:J31)</f>
         <v>1268</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9">
         <f>SUM(K2:K31)</f>
         <v>1225</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="9">
         <f>SUM(N4:P4)</f>
         <v>2493</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20">
+        <v>50</v>
+      </c>
+      <c r="K5" s="20">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
         <v>47</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <v>61</v>
       </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="J7" s="20">
         <v>31</v>
       </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="K7" s="20">
+        <v>50</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
         <v>41</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <v>51</v>
       </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9">
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
+        <v>50</v>
+      </c>
+      <c r="K9" s="20">
         <v>40</v>
       </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
         <v>51</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="9">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11">
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
+        <v>50</v>
+      </c>
+      <c r="K11" s="20">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
         <v>58</v>
       </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
+      <c r="K12" s="9">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
+        <v>1</v>
+      </c>
+      <c r="J13" s="20">
         <v>30</v>
       </c>
-      <c r="K13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="K13" s="20">
+        <v>50</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>50</v>
-      </c>
-      <c r="K14">
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
+        <v>50</v>
+      </c>
+      <c r="K14" s="9">
         <v>45</v>
       </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15">
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20">
+        <v>50</v>
+      </c>
+      <c r="K15" s="20">
         <v>38</v>
       </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16">
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
+        <v>50</v>
+      </c>
+      <c r="K16" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>50</v>
-      </c>
-      <c r="K17">
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
+        <v>50</v>
+      </c>
+      <c r="K17" s="20">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>50</v>
-      </c>
-      <c r="K18">
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
+        <v>50</v>
+      </c>
+      <c r="K18" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20">
         <v>62</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="20">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
         <v>59</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="9">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>50</v>
-      </c>
-      <c r="K21">
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20">
+        <v>50</v>
+      </c>
+      <c r="K21" s="20">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
         <v>39</v>
       </c>
-      <c r="K22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="K22" s="9">
+        <v>50</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20">
+        <v>1</v>
+      </c>
+      <c r="J23" s="20">
         <v>46</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="20">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
         <v>39</v>
       </c>
-      <c r="K24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="K24" s="9">
+        <v>50</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20">
+        <v>1</v>
+      </c>
+      <c r="J25" s="20">
         <v>28</v>
       </c>
-      <c r="K25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="K25" s="20">
+        <v>50</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
         <v>56</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="9">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20">
+        <v>1</v>
+      </c>
+      <c r="J27" s="20">
         <v>33</v>
       </c>
-      <c r="K27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="K27" s="20">
+        <v>50</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>50</v>
-      </c>
-      <c r="K28">
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9">
+        <v>50</v>
+      </c>
+      <c r="K28" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
+      <c r="J29" s="20">
         <v>23</v>
       </c>
-      <c r="K29">
-        <v>50</v>
-      </c>
+      <c r="K29" s="20">
+        <v>50</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6517,551 +7187,658 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A008F193-BE4C-42E5-90B0-30C111972DF1}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="16" width="11.77734375" customWidth="1"/>
+    <col min="1" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="13">
         <v>2</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
+      <c r="H1" s="13">
+        <v>1</v>
+      </c>
+      <c r="I1" s="13">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
         <v>38</v>
       </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="4">
+        <v>50</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <f>SUM(G2:G30)</f>
         <v>6</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <f>SUM(H2:H30)</f>
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <f>SUM(I2:I30)</f>
         <v>9</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <f>SUM(N2:P2)</f>
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18">
         <v>60</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="18">
         <v>51</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="18">
         <f>SUM(G2:G30)*2</f>
         <v>12</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="18">
         <f>SUM(H2:H30)*1</f>
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="18">
         <f>SUM(I2:I30)*2</f>
         <v>18</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="18">
         <f>SUM(N3:P3)</f>
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
         <v>37</v>
       </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="4">
+        <v>50</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <f>SUM(J2:J31)</f>
         <v>657</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4">
         <f>SUM(K2:K31)</f>
         <v>723</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <f>SUM(N4:P4)</f>
         <v>1380</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
         <v>34</v>
       </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
+      <c r="K5" s="18">
+        <v>50</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>49</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>63</v>
       </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
         <v>25</v>
       </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
+      <c r="K7" s="18">
+        <v>50</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>22</v>
       </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
+      <c r="K8" s="4">
+        <v>50</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
         <v>37</v>
       </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
+      <c r="K9" s="18">
+        <v>50</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>63</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>53</v>
       </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11">
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18">
+        <v>50</v>
+      </c>
+      <c r="K11" s="18">
         <v>23</v>
       </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>50</v>
+      </c>
+      <c r="K12" s="4">
         <v>42</v>
       </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13">
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18">
+        <v>50</v>
+      </c>
+      <c r="K13" s="18">
         <v>21</v>
       </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>53</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>55</v>
       </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
         <v>31</v>
       </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
+      <c r="K15" s="18">
+        <v>50</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
         <v>58</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>65</v>
       </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
